--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -594,9 +594,9 @@
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="7" width="25.7109375" widthPt="135" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData/>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -672,7 +672,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData/>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,19 +41,22 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>thanh hau</t>
-  </si>
-  <si>
-    <t>haupham404@gmail.com</t>
+    <t>thanh Hậu</t>
+  </si>
+  <si>
+    <t>haupham19092k@gmail.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>14</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -639,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -690,42 +693,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -47,7 +47,7 @@
     <t>haupham19092k@gmail.com</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>0</t>
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -593,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -646,6 +655,29 @@
       </c>
       <c r="G2" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -693,42 +725,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Họ tên</t>
   </si>
@@ -47,22 +47,25 @@
     <t>haupham19092k@gmail.com</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t/>
@@ -648,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -662,22 +665,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -725,42 +728,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -53,19 +53,19 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t/>
@@ -651,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -665,19 +665,19 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Họ tên</t>
   </si>
@@ -47,9 +47,6 @@
     <t>haupham19092k@gmail.com</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>0</t>
@@ -654,10 +648,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -665,22 +659,22 @@
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -728,42 +722,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
@@ -50,19 +50,22 @@
     <t>2</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>haupham2@gmail.com</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -599,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -642,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>11</v>
@@ -662,18 +665,41 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -722,42 +748,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
+++ b/Chuongtrinh/DOANTOTNGHIEP/DOANTOTNGHIEP/Content/file/1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Họ tên</t>
   </si>
@@ -41,31 +41,31 @@
     <t>Điểm</t>
   </si>
   <si>
-    <t>thanh Hậu</t>
-  </si>
-  <si>
-    <t>haupham19092k@gmail.com</t>
+    <t>pham hau</t>
+  </si>
+  <si>
+    <t>haupham@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>pham thanh hau</t>
+  </si>
+  <si>
+    <t>haupham1@gmail.com</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>haupham@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>haupham2@gmail.com</t>
+    <t>12</t>
   </si>
   <si>
     <t>Spire.XLS for .NET</t>
@@ -602,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>
@@ -659,48 +659,25 @@
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
